--- a/data/hotels_by_city/Houston/Houston_shard_12.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_12.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d249655-Reviews-Americas_Best_Value_Inn_Suites_Northeast_Houston-Houston_Texas.html</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Americas-Best-Value-Inn-Suites-Northeast-Houston.h18692619.Hotel-Information?chkin=7%2F8%2F2018&amp;chkout=7%2F9%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1530074390864&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=c7f8118c-d258-4d39-ab93-3c894204aab3&amp;mctc=9&amp;exp_dp=75&amp;exp_ts=1530074391419&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,93 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d249655-r527122415-Americas_Best_Value_Inn_Suites_Northeast_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>249655</t>
+  </si>
+  <si>
+    <t>527122415</t>
+  </si>
+  <si>
+    <t>09/24/2017</t>
+  </si>
+  <si>
+    <t>Great location hotel and service!</t>
+  </si>
+  <si>
+    <t>Me and 4 other friends came to do a 5 day visit to Houston. This place is really good, the staff was very friendly to me and my friends even though we came past the check in time (we explained our situation of why we were late and the staff was able to work with us and maintain our spot for no extra fee). The price is unbeatable, the room was clean and tidy, and as mentioned the staff was very friendly they even walked us to our rooms, and help us carry our bags. We walked around the areas looking for other places and this one was very safe, quiet area, and has a very convenient location. I really want to congratulate the staff for their great attention.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Me and 4 other friends came to do a 5 day visit to Houston. This place is really good, the staff was very friendly to me and my friends even though we came past the check in time (we explained our situation of why we were late and the staff was able to work with us and maintain our spot for no extra fee). The price is unbeatable, the room was clean and tidy, and as mentioned the staff was very friendly they even walked us to our rooms, and help us carry our bags. We walked around the areas looking for other places and this one was very safe, quiet area, and has a very convenient location. I really want to congratulate the staff for their great attention.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d249655-r511207384-Americas_Best_Value_Inn_Suites_Northeast_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>511207384</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>nice place</t>
+  </si>
+  <si>
+    <t>it is a really nice place to have a good rest in a quite area near of many restaurants and markets, the rooms were clean and confortable, people are really friendly. the staff is always there to help you and make you feel like your home</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d249655-r510230726-Americas_Best_Value_Inn_Suites_Northeast_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>510230726</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>Nice place!</t>
+  </si>
+  <si>
+    <t>Nice place to stay. The rooms were clean, very friendly staff, always helpful. For me it was a very convenient location. I am definitely coming back here! One of the few hotels I would reccomend to anyone staying in Houston...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d249655-r496578856-Americas_Best_Value_Inn_Suites_Northeast_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>496578856</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>I was there for about 1.5 weeks for work. It was a very pleasant stay. A lot of the equipment seemed brand new. I am somewhat of a clean freak, and this hotel was very very clean, even for my standards. Desk clerk was very nice. Relatively quiet. I travel a lot for work and this is great value for your buck. Recommended!!!!</t>
+  </si>
+  <si>
+    <t>April 2017</t>
   </si>
 </sst>
 </file>
@@ -532,11 +628,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +660,325 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>42950</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>42950</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>42950</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>42950</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_12.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_12.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d249655-r541378708-Americas_Best_Value_Inn_Suites_Northeast_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>249655</t>
+  </si>
+  <si>
+    <t>541378708</t>
+  </si>
+  <si>
+    <t>11/16/2017</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE</t>
+  </si>
+  <si>
+    <t>Due to Hurricane Harvey, I was displaced from my home. Since I’ve been here my stay has been extremely unpleasant. When I checked in I found food wrappers an old needle and condom wrapper under the mattress.It takes them 3-5 days to clean my room, roaches are everywhere and my key card rarely works. The workers were extremely rude as well.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d249655-r536173377-Americas_Best_Value_Inn_Suites_Northeast_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536173377</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall a very nice area to stay, close to stores and a quiet area to stay. Rooms were very clean, and staff were very friendly which kindly escorted our family to their rooms. We were very well taken care of despite being almost full that weekend. </t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d249655-r527122415-Americas_Best_Value_Inn_Suites_Northeast_Houston-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>249655</t>
-  </si>
-  <si>
     <t>527122415</t>
   </si>
   <si>
@@ -217,6 +259,42 @@
   </si>
   <si>
     <t>Nice place to stay. The rooms were clean, very friendly staff, always helpful. For me it was a very convenient location. I am definitely coming back here! One of the few hotels I would reccomend to anyone staying in Houston...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d249655-r503340327-Americas_Best_Value_Inn_Suites_Northeast_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>503340327</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Cant beat the price for location and commodity</t>
+  </si>
+  <si>
+    <t>Place is really good nice well kept and peaceful. I have been to other places around the area but this one I feel safe. Management is really good. I had a problem with one of the lights that was blinking they came right after I told them to fix it. They have a great customer service. The young men seem really friends and helpful at all time of my stay. When talking to him, he told me they are expecting new furniture soon since they just took over the property and I was able to see they have been replacing new things and making the rooms really nice and comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Place is really good nice well kept and peaceful. I have been to other places around the area but this one I feel safe. Management is really good. I had a problem with one of the lights that was blinking they came right after I told them to fix it. They have a great customer service. The young men seem really friends and helpful at all time of my stay. When talking to him, he told me they are expecting new furniture soon since they just took over the property and I was able to see they have been replacing new things and making the rooms really nice and comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d249655-r501277418-Americas_Best_Value_Inn_Suites_Northeast_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>501277418</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>Quite and peaceful place</t>
+  </si>
+  <si>
+    <t>This place is good and management is really friendly and helpful. Very quite and peaceful. Most of the furniture and equipment in the room seemed relatively new. Would definitely stay here again if I have the opportunity to do so. Rooms are neat and clean perfect for any kind of stay.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d249655-r496578856-Americas_Best_Value_Inn_Suites_Northeast_Houston-Houston_Texas.html</t>
@@ -769,7 +847,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -779,23 +857,17 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -811,7 +883,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -820,45 +892,39 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="O3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -874,7 +940,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -883,39 +949,45 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>60</v>
-      </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -931,7 +1003,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -940,34 +1012,34 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
       </c>
-      <c r="Q5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
         <v>5</v>
@@ -978,7 +1050,251 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>42950</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>42950</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>42950</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>42950</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
